--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\auvic\LCD_board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\auvic\LCD_board\LCD_board\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Pins" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
   <si>
     <t>STM32F4 Pin</t>
   </si>
@@ -336,27 +336,6 @@
     <t>PB15</t>
   </si>
   <si>
-    <t>PA11 and PA12 needed for usb</t>
-  </si>
-  <si>
-    <t>USART3_TX</t>
-  </si>
-  <si>
-    <t>USART3_RX</t>
-  </si>
-  <si>
-    <t>USART3_RTS</t>
-  </si>
-  <si>
-    <t>USART3_CTS</t>
-  </si>
-  <si>
-    <t>USART3_CK</t>
-  </si>
-  <si>
-    <t>AF8</t>
-  </si>
-  <si>
     <t xml:space="preserve">Set these three high for SPI mode and this can be brought down to one pin if necessary </t>
   </si>
   <si>
@@ -394,6 +373,90 @@
   </si>
   <si>
     <t>https://www.digikey.ca/product-detail/en/molex-llc/0008500113/WM1114CT-ND/467980</t>
+  </si>
+  <si>
+    <t>USB to UART pin</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>needed for usb</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD3</t>
+  </si>
+  <si>
+    <t>USART2_CTS</t>
+  </si>
+  <si>
+    <t>USART2_RTS</t>
+  </si>
+  <si>
+    <t>PD5</t>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
+    <t>PD6</t>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+  </si>
+  <si>
+    <t>PD7</t>
+  </si>
+  <si>
+    <t>USART2_CK</t>
+  </si>
+  <si>
+    <t>GPIOD</t>
+  </si>
+  <si>
+    <t>PD0</t>
+  </si>
+  <si>
+    <t>PD1</t>
+  </si>
+  <si>
+    <t>PD2</t>
+  </si>
+  <si>
+    <t>PD8</t>
+  </si>
+  <si>
+    <t>PD9</t>
+  </si>
+  <si>
+    <t>PD10</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>PD14</t>
+  </si>
+  <si>
+    <t>PD15</t>
   </si>
 </sst>
 </file>
@@ -469,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -481,43 +544,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -583,26 +609,23 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -614,15 +637,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -943,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,10 +981,10 @@
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
@@ -963,28 +992,30 @@
     <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.88671875" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" customWidth="1"/>
+    <col min="16" max="17" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="H1" s="17" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="H1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1027,7 +1058,7 @@
         <v>51</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,7 +1075,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1057,8 +1088,8 @@
       <c r="N3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="15" t="s">
-        <v>110</v>
+      <c r="O3" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1075,7 +1106,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="19"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1086,7 +1117,7 @@
       <c r="N4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="15"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1102,7 +1133,7 @@
         <v>52</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="20"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1113,7 +1144,7 @@
       <c r="N5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="15"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1291,7 +1322,7 @@
         <v>53</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>76</v>
@@ -1540,11 +1571,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1556,67 +1588,85 @@
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="D25" s="18" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M32" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="N32" s="15"/>
+      <c r="K32" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1649,10 +1699,10 @@
       <c r="J33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="5" t="s">
         <v>90</v>
       </c>
       <c r="M33" s="5" t="s">
@@ -1708,6 +1758,7 @@
       <c r="L34" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="3" t="s">
         <v>99</v>
       </c>
@@ -1764,40 +1815,93 @@
       <c r="N35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O35" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q35" s="9" t="s">
-        <v>114</v>
+      <c r="O35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K32:N32"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="H3:H5"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1808,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,34 +1925,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>122</v>
+        <v>110</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
   <si>
     <t>STM32F4 Pin</t>
   </si>
@@ -457,6 +457,57 @@
   </si>
   <si>
     <t>PD15</t>
+  </si>
+  <si>
+    <t>GPIOE</t>
+  </si>
+  <si>
+    <t>PE0</t>
+  </si>
+  <si>
+    <t>PE1</t>
+  </si>
+  <si>
+    <t>PE2</t>
+  </si>
+  <si>
+    <t>PE3</t>
+  </si>
+  <si>
+    <t>PE4</t>
+  </si>
+  <si>
+    <t>PE5</t>
+  </si>
+  <si>
+    <t>PE6</t>
+  </si>
+  <si>
+    <t>PE7</t>
+  </si>
+  <si>
+    <t>PE8</t>
+  </si>
+  <si>
+    <t>PE9</t>
+  </si>
+  <si>
+    <t>PE10</t>
+  </si>
+  <si>
+    <t>PE11</t>
+  </si>
+  <si>
+    <t>PE12</t>
+  </si>
+  <si>
+    <t>PE13</t>
+  </si>
+  <si>
+    <t>PE14</t>
+  </si>
+  <si>
+    <t>PE15</t>
   </si>
 </sst>
 </file>
@@ -625,14 +676,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,12 +700,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -973,7 +1024,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,24 +1049,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="H1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1075,7 +1126,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1088,7 +1139,7 @@
       <c r="N3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1106,7 +1157,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="16"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1117,7 +1168,7 @@
       <c r="N4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1133,7 +1184,7 @@
         <v>52</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="17"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1144,7 +1195,7 @@
       <c r="N5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1571,12 +1622,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1588,7 +1639,7 @@
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1661,12 +1712,12 @@
       <c r="D30" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1815,18 +1866,18 @@
       <c r="N35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O35" s="20" t="s">
+      <c r="O35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="21" t="s">
+      <c r="P35" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q35" s="21" t="s">
+      <c r="Q35" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1876,6 +1927,59 @@
       </c>
       <c r="Q36" s="4" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pins" sheetId="1" r:id="rId1"/>
-    <sheet name="Odd Parts" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Odd Parts" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1023,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -2014,10 +2015,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2055,7 +2068,7 @@
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2063,6 +2076,7 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pins" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Odd Parts" sheetId="2" r:id="rId3"/>
+    <sheet name="Odd Parts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
   <si>
     <t>STM32F4 Pin</t>
   </si>
@@ -391,9 +390,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>needed for usb</t>
-  </si>
-  <si>
     <t>PD4</t>
   </si>
   <si>
@@ -509,13 +505,28 @@
   </si>
   <si>
     <t>PE15</t>
+  </si>
+  <si>
+    <t>CANbus</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CAN1_RX</t>
+  </si>
+  <si>
+    <t>CAN1_TX</t>
+  </si>
+  <si>
+    <t>AF9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,13 +557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -561,7 +565,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,11 +580,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -654,20 +653,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -676,13 +673,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,14 +696,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1024,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,11 +1031,11 @@
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
@@ -1050,66 +1048,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="H1" s="17" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="H1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1126,8 +1124,8 @@
       <c r="F3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="18" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1140,7 +1138,7 @@
       <c r="N3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1157,8 +1155,8 @@
       <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1169,7 +1167,7 @@
       <c r="N4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="16"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1184,8 +1182,8 @@
       <c r="F5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1196,7 +1194,7 @@
       <c r="N5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="16"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1623,33 +1621,47 @@
       <c r="O22" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="F24" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="22" t="s">
         <v>116</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>82</v>
@@ -1657,13 +1669,22 @@
       <c r="D26" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="F26" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>82</v>
@@ -1671,13 +1692,22 @@
       <c r="D27" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="F27" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>82</v>
@@ -1688,10 +1718,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>82</v>
@@ -1702,23 +1732,15 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="2"/>
-    </row>
-    <row r="32" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K32" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1751,16 +1773,16 @@
       <c r="J33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="3" t="s">
         <v>92</v>
       </c>
       <c r="O33" s="3" t="s">
@@ -1867,146 +1889,146 @@
       <c r="N35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O35" s="12" t="s">
+      <c r="O35" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="Q35" s="13" t="s">
+      <c r="Q35" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="M36" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="N36" s="4" t="s">
+      <c r="O36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="O36" s="4" t="s">
+      <c r="P36" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="P36" s="4" t="s">
+      <c r="Q36" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="Q36" s="4" t="s">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="B37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="O37" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P37" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Q37" s="4" t="s">
-        <v>160</v>
-      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="K32:N32"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2015,22 +2037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2044,7 +2054,7 @@
       <c r="A1" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2060,7 +2070,7 @@
       <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2068,7 +2078,7 @@
       <c r="A4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>112</v>
       </c>
     </row>

--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\auvic\LCD_board\LCD_board\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95E4C675-5965-4DA9-AE6C-E9A4DBC3534B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pins" sheetId="1" r:id="rId1"/>
@@ -525,7 +526,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,6 +678,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,14 +701,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1019,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1048,24 +1049,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="H1" s="15" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="H1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1125,7 +1126,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="19" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1138,7 +1139,7 @@
       <c r="N3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="17" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1156,7 +1157,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="17"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2" t="s">
         <v>60</v>
       </c>
@@ -1167,7 +1168,7 @@
       <c r="N4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1183,7 +1184,7 @@
         <v>52</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="18"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1194,7 +1195,7 @@
       <c r="N5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="14"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1621,29 +1622,29 @@
       <c r="O22" s="2"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="F24" s="20" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="F24" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="15" t="s">
         <v>116</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1669,13 +1670,13 @@
       <c r="D26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1692,13 +1693,13 @@
       <c r="D27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2036,11 +2037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,9 +2085,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\auvic\LCD_board\LCD_board\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95E4C675-5965-4DA9-AE6C-E9A4DBC3534B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18E91983-2438-46D5-8000-B3558D4B72B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pins" sheetId="1" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\auvic\LCD_board\LCD_board\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\AUVIC\LCD_board\LCD_board\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18E91983-2438-46D5-8000-B3558D4B72B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BC37092-E474-4AA3-8311-D8600871F900}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,16 +1957,16 @@
       <c r="A37" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>147</v>
       </c>
       <c r="F37" s="4" t="s">

--- a/documents/LCD board.xlsx
+++ b/documents/LCD board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\AUVIC\LCD_board\LCD_board\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BC37092-E474-4AA3-8311-D8600871F900}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F82E29C0-6EE2-4C8E-A474-2A94FF5C7E50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pins" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:E37"/>
     </sheetView>
   </sheetViews>
@@ -2040,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,7 +2063,7 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2088,6 +2088,7 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{56385B94-E68A-43A0-A103-7A48D69F4863}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
